--- a/Model_Comparison.xlsx
+++ b/Model_Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Cincinnati\GitHub\SayakChakraborty\NewYork_AirBnB_Analysis_and_Modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_F25DC773A252ABDACC104846F11C7FD85ADE58F2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63629BA6-9D7E-4B04-B3AF-0EDFF653E980}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_F25DC773A252ABDACC104846F11C7FD85ADE58F2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{41375357-155A-43BD-BFA0-6D1E0466DE59}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Model Name</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Linear Regression Model</t>
-  </si>
-  <si>
-    <t>Transformed Linear Regression Model</t>
   </si>
   <si>
     <t>Best Subset Regression Method</t>
@@ -426,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,13 +459,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>1659.508</v>
+        <v>1651</v>
       </c>
       <c r="C2" s="4">
-        <v>0.44313130000000001</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D2" s="4">
-        <v>0.44287910000000003</v>
+        <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -476,13 +473,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="4">
-        <v>0.1020295</v>
+        <v>1653</v>
       </c>
       <c r="C3" s="4">
-        <v>0.49696790000000002</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D3" s="4">
-        <v>0.49667169999999999</v>
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -490,13 +487,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="4">
-        <v>1659.163</v>
+        <v>1651</v>
       </c>
       <c r="C4" s="4">
-        <v>0.4432468</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D4" s="4">
-        <v>0.44299460000000002</v>
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -504,13 +501,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="4">
-        <v>1651.0640000000001</v>
+        <v>1651</v>
       </c>
       <c r="C5" s="4">
-        <v>0.44601469999999999</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D5" s="4">
-        <v>0.44571359999999999</v>
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -518,35 +515,25 @@
         <v>8</v>
       </c>
       <c r="B6" s="4">
-        <v>1651.127</v>
+        <v>2687</v>
       </c>
       <c r="C6" s="4">
-        <v>0.44601879999999999</v>
+        <v>9.8100000000000007E-2</v>
       </c>
       <c r="D6" s="4">
-        <v>0.44569259999999999</v>
+        <v>9.7820000000000004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2687.35</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9.810315E-2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>9.7817249999999994E-2</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
@@ -554,7 +541,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
@@ -562,11 +549,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
